--- a/Data/STEFUS_data_CSchlosser.xlsx
+++ b/Data/STEFUS_data_CSchlosser.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pos_Doc_Sinbiose\Reef_fish_course_CEBIMar\dados\stegastes_behavior\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F06DDA0-3201-432F-BEA9-B82B24A1A544}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C83F80F1-3819-4AAA-A6C9-A5100D316FB8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,10 @@
     <sheet name="Plan2" sheetId="2" r:id="rId2"/>
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$1:$K$48</definedName>
+  </definedNames>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataSignature="AMtx7mh3Ym3u4q3LFsuvLewX+Bgx+MHSEg=="/>
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="24">
   <si>
     <t>site</t>
   </si>
@@ -74,12 +77,6 @@
     <t>interspecific_chase</t>
   </si>
   <si>
-    <t>intraspecifc_chase</t>
-  </si>
-  <si>
-    <t>intermediáro</t>
-  </si>
-  <si>
     <t>muita alga/ recurso</t>
   </si>
   <si>
@@ -102,6 +99,9 @@
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>intraspecific_chase</t>
   </si>
 </sst>
 </file>
@@ -391,8 +391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -412,7 +412,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -453,16 +453,16 @@
         <v>0.40972222222222221</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E2" s="3">
         <v>1</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>11</v>
@@ -500,16 +500,16 @@
         <v>0.40972222222222221</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E3" s="3">
         <v>1</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>12</v>
@@ -547,16 +547,16 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E4" s="3">
         <v>2</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>11</v>
@@ -594,16 +594,16 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E5" s="3">
         <v>2</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>12</v>
@@ -641,16 +641,16 @@
         <v>0.42152777777777778</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E6" s="3">
         <v>3</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>11</v>
@@ -688,16 +688,16 @@
         <v>0.42152777777777778</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E7" s="3">
         <v>3</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>12</v>
@@ -733,16 +733,16 @@
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E8" s="3">
         <v>4</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>11</v>
@@ -778,16 +778,16 @@
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E9" s="3">
         <v>4</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>12</v>
@@ -823,16 +823,16 @@
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E10" s="3">
         <v>5</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>11</v>
@@ -868,16 +868,16 @@
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E11" s="3">
         <v>5</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>12</v>
@@ -913,16 +913,16 @@
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E12" s="3">
         <v>6</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>11</v>
@@ -958,16 +958,16 @@
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E13" s="3">
         <v>6</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>12</v>
@@ -1003,16 +1003,16 @@
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E14" s="3">
         <v>7</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>11</v>
@@ -1048,16 +1048,16 @@
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E15" s="3">
         <v>7</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>12</v>
@@ -1093,16 +1093,16 @@
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E16" s="3">
         <v>8</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>11</v>
@@ -1138,16 +1138,16 @@
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E17" s="3">
         <v>8</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>12</v>
@@ -1183,16 +1183,17 @@
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="1">
+        <f>9</f>
+        <v>9</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="1">
-        <v>1</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="G18" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>11</v>
@@ -1228,16 +1229,17 @@
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="1">
+        <f>9</f>
+        <v>9</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="1">
-        <v>1</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="G19" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>14</v>
@@ -1273,19 +1275,20 @@
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="1">
+        <f>9</f>
+        <v>9</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="1">
-        <v>1</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="G20" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="I20" s="1">
         <v>0</v>
@@ -1318,16 +1321,17 @@
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="1">
+        <f>10</f>
+        <v>10</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="1">
-        <v>2</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="G21" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>11</v>
@@ -1363,16 +1367,17 @@
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="1">
+        <f>10</f>
+        <v>10</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="1">
-        <v>2</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="G22" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>14</v>
@@ -1408,19 +1413,20 @@
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="1">
+        <f>10</f>
+        <v>10</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="1">
-        <v>2</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="G23" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="I23" s="1">
         <v>0</v>
@@ -1453,16 +1459,17 @@
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E24" s="1">
-        <v>3</v>
+        <f>11</f>
+        <v>11</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>11</v>
@@ -1498,16 +1505,17 @@
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E25" s="1">
-        <v>3</v>
+        <f>11</f>
+        <v>11</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>14</v>
@@ -1543,19 +1551,20 @@
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E26" s="1">
-        <v>3</v>
+        <f>11</f>
+        <v>11</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="I26" s="1">
         <v>14</v>
@@ -1588,16 +1597,17 @@
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E27" s="1">
-        <v>4</v>
+        <f>12</f>
+        <v>12</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>11</v>
@@ -1633,16 +1643,17 @@
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E28" s="1">
-        <v>4</v>
+        <f>12</f>
+        <v>12</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>14</v>
@@ -1678,19 +1689,20 @@
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E29" s="1">
-        <v>4</v>
+        <f>12</f>
+        <v>12</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I29" s="1">
         <v>3</v>
@@ -1723,16 +1735,17 @@
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E30" s="1">
-        <v>5</v>
+        <f>13</f>
+        <v>13</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>11</v>
@@ -1768,16 +1781,17 @@
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E31" s="1">
-        <v>5</v>
+        <f>13</f>
+        <v>13</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>14</v>
@@ -1813,19 +1827,20 @@
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E32" s="1">
-        <v>5</v>
+        <f>13</f>
+        <v>13</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="I32" s="1">
         <v>4</v>
@@ -1858,16 +1873,17 @@
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" s="1">
+        <f>14</f>
+        <v>14</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E33" s="1">
-        <v>6</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="G33" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>11</v>
@@ -1903,16 +1919,17 @@
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="1">
+        <f>14</f>
+        <v>14</v>
+      </c>
+      <c r="F34" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E34" s="1">
-        <v>6</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="G34" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>14</v>
@@ -1948,19 +1965,20 @@
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="1">
+        <f>14</f>
+        <v>14</v>
+      </c>
+      <c r="F35" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E35" s="1">
-        <v>6</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="G35" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I35" s="1">
         <v>9</v>
@@ -1993,16 +2011,17 @@
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E36" s="1">
+        <f>15</f>
+        <v>15</v>
+      </c>
+      <c r="F36" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E36" s="1">
-        <v>7</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="G36" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>11</v>
@@ -2038,16 +2057,17 @@
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E37" s="1">
+        <f>15</f>
+        <v>15</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E37" s="1">
-        <v>7</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="G37" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>14</v>
@@ -2083,19 +2103,20 @@
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E38" s="1">
+        <f>15</f>
+        <v>15</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E38" s="1">
-        <v>7</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="G38" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I38" s="1">
         <v>2</v>
@@ -2121,7 +2142,7 @@
     </row>
     <row r="39" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B39" s="9">
         <v>44989</v>
@@ -2130,13 +2151,14 @@
         <v>0.4</v>
       </c>
       <c r="D39" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E39" s="8">
+        <f>16</f>
+        <v>16</v>
+      </c>
+      <c r="F39" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="E39" s="8">
-        <v>1</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>21</v>
       </c>
       <c r="G39" s="8">
         <v>1</v>
@@ -2168,7 +2190,7 @@
     </row>
     <row r="40" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B40" s="9">
         <v>44989</v>
@@ -2177,19 +2199,20 @@
         <v>0.4</v>
       </c>
       <c r="D40" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E40" s="8">
+        <f>16</f>
+        <v>16</v>
+      </c>
+      <c r="F40" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="E40" s="8">
-        <v>1</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>21</v>
       </c>
       <c r="G40" s="8">
         <v>2</v>
       </c>
-      <c r="H40" s="8" t="s">
-        <v>15</v>
+      <c r="H40" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="I40" s="8">
         <v>2</v>
@@ -2215,7 +2238,7 @@
     </row>
     <row r="41" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B41" s="9">
         <v>44989</v>
@@ -2224,13 +2247,14 @@
         <v>0.4</v>
       </c>
       <c r="D41" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E41" s="8">
+        <f>16</f>
+        <v>16</v>
+      </c>
+      <c r="F41" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="E41" s="8">
-        <v>1</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>21</v>
       </c>
       <c r="G41" s="8">
         <v>3</v>
@@ -2262,7 +2286,7 @@
     </row>
     <row r="42" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B42" s="9">
         <v>44989</v>
@@ -2271,13 +2295,14 @@
         <v>0.41180555555555554</v>
       </c>
       <c r="D42" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E42" s="8">
+        <f>17</f>
+        <v>17</v>
+      </c>
+      <c r="F42" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="E42" s="8">
-        <v>2</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>21</v>
       </c>
       <c r="G42" s="8">
         <v>1</v>
@@ -2289,7 +2314,7 @@
         <v>23</v>
       </c>
       <c r="K42" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L42" s="7"/>
       <c r="M42" s="7"/>
@@ -2310,7 +2335,7 @@
     </row>
     <row r="43" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B43" s="9">
         <v>44989</v>
@@ -2319,13 +2344,14 @@
         <v>0.41458333333333336</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E43" s="8">
-        <v>3</v>
+        <f>18</f>
+        <v>18</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G43" s="8">
         <v>1</v>
@@ -2337,7 +2363,7 @@
         <v>23</v>
       </c>
       <c r="K43" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L43" s="7"/>
       <c r="M43" s="7"/>
@@ -2358,7 +2384,7 @@
     </row>
     <row r="44" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B44" s="9">
         <v>44989</v>
@@ -2367,13 +2393,14 @@
         <v>0.42291666666666666</v>
       </c>
       <c r="D44" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E44" s="8">
+        <f>19</f>
         <v>19</v>
       </c>
-      <c r="E44" s="8">
-        <v>4</v>
-      </c>
       <c r="F44" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G44" s="8">
         <v>1</v>
@@ -2405,7 +2432,7 @@
     </row>
     <row r="45" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B45" s="9">
         <v>44989</v>
@@ -2414,25 +2441,26 @@
         <v>0.42291666666666666</v>
       </c>
       <c r="D45" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" s="8">
+        <f>19</f>
         <v>19</v>
       </c>
-      <c r="E45" s="8">
-        <v>4</v>
-      </c>
       <c r="F45" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G45" s="8">
         <v>2</v>
       </c>
-      <c r="H45" s="8" t="s">
+      <c r="H45" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I45" s="8">
         <v>2</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K45" s="7"/>
       <c r="L45" s="7"/>
@@ -2454,7 +2482,7 @@
     </row>
     <row r="46" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B46" s="9">
         <v>44989</v>
@@ -2463,13 +2491,14 @@
         <v>0.42291666666666666</v>
       </c>
       <c r="D46" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46" s="8">
+        <f>19</f>
         <v>19</v>
       </c>
-      <c r="E46" s="8">
-        <v>4</v>
-      </c>
       <c r="F46" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G46" s="8">
         <v>3</v>
@@ -2501,7 +2530,7 @@
     </row>
     <row r="47" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B47" s="9">
         <v>44989</v>
@@ -2510,25 +2539,26 @@
         <v>0.42291666666666666</v>
       </c>
       <c r="D47" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E47" s="8">
+        <f>19</f>
         <v>19</v>
       </c>
-      <c r="E47" s="8">
-        <v>4</v>
-      </c>
       <c r="F47" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G47" s="8">
         <v>4</v>
       </c>
-      <c r="H47" s="8" t="s">
+      <c r="H47" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I47" s="8">
         <v>2</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K47" s="7"/>
       <c r="L47" s="7"/>
@@ -2550,7 +2580,7 @@
     </row>
     <row r="48" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B48" s="9">
         <v>44989</v>
@@ -2559,13 +2589,14 @@
         <v>0.42291666666666666</v>
       </c>
       <c r="D48" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E48" s="8">
+        <f>19</f>
         <v>19</v>
       </c>
-      <c r="E48" s="8">
-        <v>4</v>
-      </c>
       <c r="F48" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G48" s="8">
         <v>5</v>
@@ -3550,6 +3581,7 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <autoFilter ref="A1:K48" xr:uid="{B659CA81-CE92-40A4-8BDA-3CBCD8C78FE4}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
